--- a/raw_data/city and court.xlsx
+++ b/raw_data/city and court.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anhton/Desktop/Gov-50/court-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anhton/Desktop/Gov-50/court-data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC794F43-B5B5-F142-9C0F-DFF519256878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDF99E5-693A-7E48-8566-E76370061E04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="680" windowWidth="28800" windowHeight="16780" xr2:uid="{51D5DA26-A95F-2F41-A081-7FA7EC1FB7D4}"/>
+    <workbookView xWindow="2180" yWindow="460" windowWidth="14360" windowHeight="16720" xr2:uid="{51D5DA26-A95F-2F41-A081-7FA7EC1FB7D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735D6AF1-E8DB-E645-9A58-AF957E94593C}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
